--- a/examples/4_get_pdb_info/test-sample.xlsx
+++ b/examples/4_get_pdb_info/test-sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="283">
   <si>
     <t>pdb_id</t>
   </si>
@@ -82,6 +82,45 @@
     <t>pmid</t>
   </si>
   <si>
+    <t>5WNO</t>
+  </si>
+  <si>
+    <t>5UT4</t>
+  </si>
+  <si>
+    <t>5QIN</t>
+  </si>
+  <si>
+    <t>5OS8</t>
+  </si>
+  <si>
+    <t>5OOT</t>
+  </si>
+  <si>
+    <t>5N9S</t>
+  </si>
+  <si>
+    <t>5KX7</t>
+  </si>
+  <si>
+    <t>5HZN</t>
+  </si>
+  <si>
+    <t>4YHT</t>
+  </si>
+  <si>
+    <t>4J98</t>
+  </si>
+  <si>
+    <t>3AT4</t>
+  </si>
+  <si>
+    <t>4G16</t>
+  </si>
+  <si>
+    <t>5E91</t>
+  </si>
+  <si>
     <t>6U2G</t>
   </si>
   <si>
@@ -94,6 +133,21 @@
     <t>1ATP</t>
   </si>
   <si>
+    <t>6S9B</t>
+  </si>
+  <si>
+    <t>5X2A</t>
+  </si>
+  <si>
+    <t>5XDK</t>
+  </si>
+  <si>
+    <t>5XYZ</t>
+  </si>
+  <si>
+    <t>5YF9</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -103,51 +157,267 @@
     <t>E</t>
   </si>
   <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>P24348</t>
+  </si>
+  <si>
+    <t>O60674</t>
+  </si>
+  <si>
+    <t>P37173</t>
+  </si>
+  <si>
+    <t>P68400</t>
+  </si>
+  <si>
+    <t>O14757</t>
+  </si>
+  <si>
+    <t>P33981</t>
+  </si>
+  <si>
+    <t>Q9NWZ3</t>
+  </si>
+  <si>
+    <t>P08069</t>
+  </si>
+  <si>
+    <t>P15056</t>
+  </si>
+  <si>
+    <t>P21802</t>
+  </si>
+  <si>
+    <t>Q9Y6M4</t>
+  </si>
+  <si>
     <t>Q02750</t>
   </si>
   <si>
-    <t>P15056</t>
-  </si>
-  <si>
-    <t>P68400</t>
-  </si>
-  <si>
     <t>P05132</t>
   </si>
   <si>
+    <t>P00533</t>
+  </si>
+  <si>
+    <t>Q06187</t>
+  </si>
+  <si>
+    <t>P19784</t>
+  </si>
+  <si>
+    <t>LET-23, KIN-7, ZK1067.1</t>
+  </si>
+  <si>
+    <t>JAK2</t>
+  </si>
+  <si>
+    <t>TGFBR2</t>
+  </si>
+  <si>
+    <t>CSNK2A1, CK2A1</t>
+  </si>
+  <si>
+    <t>CHEK1, CHK1</t>
+  </si>
+  <si>
+    <t>TTK, MPS1, MPS1L1</t>
+  </si>
+  <si>
+    <t>IRAK4</t>
+  </si>
+  <si>
+    <t>IGF1R</t>
+  </si>
+  <si>
+    <t>BRAF, BRAF1, RAFB1</t>
+  </si>
+  <si>
+    <t>BEK, FGFR2, KGFR, KSAM</t>
+  </si>
+  <si>
+    <t>CSNK2A1</t>
+  </si>
+  <si>
+    <t>CSNK1G3</t>
+  </si>
+  <si>
     <t>MAP2K1, MEK1, PRKMK1</t>
   </si>
   <si>
-    <t>BRAF, BRAF1, RAFB1</t>
-  </si>
-  <si>
-    <t>CSNK2A1, CK2A1</t>
-  </si>
-  <si>
     <t>NaN</t>
   </si>
   <si>
+    <t>EGFR, ERBB, ERBB1, HER1</t>
+  </si>
+  <si>
+    <t>BTK, AGMX1, ATK, BPK</t>
+  </si>
+  <si>
+    <t>CSNK2A2, CK2A2</t>
+  </si>
+  <si>
+    <t>RECEPTOR TYROSINE-PROTEIN KINASE LET-23</t>
+  </si>
+  <si>
+    <t>TYROSINE-PROTEIN KINASE JAK2</t>
+  </si>
+  <si>
+    <t>TGF-BETA RECEPTOR TYPE-2</t>
+  </si>
+  <si>
+    <t>CASEIN KINASE II SUBUNIT ALPHA</t>
+  </si>
+  <si>
+    <t>SERINE/THREONINE-PROTEIN KINASE CHK1</t>
+  </si>
+  <si>
+    <t>DUAL SPECIFICITY PROTEIN KINASE TTK</t>
+  </si>
+  <si>
+    <t>INTERLEUKIN-1 RECEPTOR-ASSOCIATED KINASE 4</t>
+  </si>
+  <si>
+    <t>INSULIN-LIKE GROWTH FACTOR 1 RECEPTOR</t>
+  </si>
+  <si>
+    <t>SERINE/THREONINE-PROTEIN KINASE B-RAF</t>
+  </si>
+  <si>
+    <t>FIBROBLAST GROWTH FACTOR RECEPTOR 2</t>
+  </si>
+  <si>
+    <t>CASEIN KINASE I ISOFORM GAMMA-3</t>
+  </si>
+  <si>
     <t>DUAL SPECIFICITY MITOGEN-ACTIVATED PROTEIN KINASE KINASE 1</t>
   </si>
   <si>
-    <t>SERINE/THREONINE-PROTEIN KINASE B-RAF</t>
-  </si>
-  <si>
-    <t>CASEIN KINASE II SUBUNIT ALPHA</t>
-  </si>
-  <si>
     <t>CAMP-DEPENDENT PROTEIN KINASE</t>
   </si>
   <si>
+    <t>EPIDERMAL GROWTH FACTOR RECEPTOR</t>
+  </si>
+  <si>
+    <t>TYROSINE-PROTEIN KINASE BTK</t>
+  </si>
+  <si>
+    <t>CASEIN KINASE II SUBUNIT ALPHA'</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>A:W659A|A:W777A|A:F794H</t>
+  </si>
+  <si>
+    <t>A:E431A|A:R433A|A:E485A|A:K488A|A:R493A|A:R495A</t>
+  </si>
+  <si>
+    <t>A:R21S|A:K74A|A:K75A|A:K76A</t>
+  </si>
+  <si>
+    <t>A:N59L|A:V68I|A:L84M|A:Y86L|A:C87A|A:E91S|A:E134H|A:S147A|A:F149Y|A:G150S</t>
+  </si>
+  <si>
+    <t>A:E1094A|A:E1096A|B:E1094A|B:E1096A|C:E1094A|C:E1096A|D:E1094A|D:E1096A|E:E1094A|E:E1096A|F:E1094A|F:E1096A|G:E1094A|G:E1096A|H:E1094A|H:E1096A</t>
+  </si>
+  <si>
+    <t>A:I542T|A:I543N|A:I550T|A:L705T|A:L715T|B:I542T|B:I543N|B:I550T|B:L705T|B:L715T</t>
+  </si>
+  <si>
+    <t>A:C491A|A:K659Q|B:C491A|B:K659Q</t>
+  </si>
+  <si>
+    <t>A:T790M|A:L858R|A:E865A|A:E866A|A:K867A</t>
+  </si>
+  <si>
+    <t>A:T790M|A:V948R|B:T790M|B:V948R|C:T790M|C:V948R|D:T790M|D:V948R</t>
+  </si>
+  <si>
+    <t>A:T790M</t>
+  </si>
+  <si>
+    <t>2.7.10.1</t>
+  </si>
+  <si>
+    <t>2.7.10.2</t>
+  </si>
+  <si>
+    <t>2.7.11.30</t>
+  </si>
+  <si>
+    <t>2.7.11.1</t>
+  </si>
+  <si>
+    <t>2.7.12.1</t>
+  </si>
+  <si>
     <t>2.7.12.2</t>
   </si>
   <si>
-    <t>2.7.11.1</t>
-  </si>
-  <si>
     <t>2.7.11.11</t>
   </si>
   <si>
+    <t>CAENORHABDITIS ELEGANS</t>
+  </si>
+  <si>
     <t>HOMO SAPIENS</t>
   </si>
   <si>
@@ -160,12 +430,54 @@
     <t>HOUSE MOUSE</t>
   </si>
   <si>
+    <t>6239</t>
+  </si>
+  <si>
     <t>9606</t>
   </si>
   <si>
     <t>10090</t>
   </si>
   <si>
+    <t>2017-08-01</t>
+  </si>
+  <si>
+    <t>2017-02-14</t>
+  </si>
+  <si>
+    <t>2018-08-05</t>
+  </si>
+  <si>
+    <t>2017-08-17</t>
+  </si>
+  <si>
+    <t>2017-08-08</t>
+  </si>
+  <si>
+    <t>2017-02-27</t>
+  </si>
+  <si>
+    <t>2016-07-20</t>
+  </si>
+  <si>
+    <t>2016-02-02</t>
+  </si>
+  <si>
+    <t>2015-02-27</t>
+  </si>
+  <si>
+    <t>2013-02-15</t>
+  </si>
+  <si>
+    <t>2010-12-23</t>
+  </si>
+  <si>
+    <t>2012-07-10</t>
+  </si>
+  <si>
+    <t>2015-10-14</t>
+  </si>
+  <si>
     <t>2019-08-19</t>
   </si>
   <si>
@@ -175,6 +487,60 @@
     <t>1993-01-08</t>
   </si>
   <si>
+    <t>2019-07-12</t>
+  </si>
+  <si>
+    <t>2017-01-31</t>
+  </si>
+  <si>
+    <t>2017-03-28</t>
+  </si>
+  <si>
+    <t>2017-07-11</t>
+  </si>
+  <si>
+    <t>2017-09-20</t>
+  </si>
+  <si>
+    <t>2018-01-31</t>
+  </si>
+  <si>
+    <t>2017-06-07</t>
+  </si>
+  <si>
+    <t>2018-10-31</t>
+  </si>
+  <si>
+    <t>2018-02-28</t>
+  </si>
+  <si>
+    <t>2017-10-25</t>
+  </si>
+  <si>
+    <t>2017-05-31</t>
+  </si>
+  <si>
+    <t>2016-08-17</t>
+  </si>
+  <si>
+    <t>2016-04-06</t>
+  </si>
+  <si>
+    <t>2016-03-16</t>
+  </si>
+  <si>
+    <t>2013-08-07</t>
+  </si>
+  <si>
+    <t>2011-11-09</t>
+  </si>
+  <si>
+    <t>2013-05-22</t>
+  </si>
+  <si>
+    <t>2016-05-11</t>
+  </si>
+  <si>
     <t>2019-08-28</t>
   </si>
   <si>
@@ -184,6 +550,57 @@
     <t>1993-04-15</t>
   </si>
   <si>
+    <t>2019-11-20</t>
+  </si>
+  <si>
+    <t>2018-02-07</t>
+  </si>
+  <si>
+    <t>2017-12-13</t>
+  </si>
+  <si>
+    <t>2018-05-23</t>
+  </si>
+  <si>
+    <t>2018-05-16</t>
+  </si>
+  <si>
+    <t>2019-12-04</t>
+  </si>
+  <si>
+    <t>2020-01-01</t>
+  </si>
+  <si>
+    <t>2018-12-26</t>
+  </si>
+  <si>
+    <t>2017-11-22</t>
+  </si>
+  <si>
+    <t>2017-08-23</t>
+  </si>
+  <si>
+    <t>2016-08-24</t>
+  </si>
+  <si>
+    <t>2016-12-21</t>
+  </si>
+  <si>
+    <t>2016-06-22</t>
+  </si>
+  <si>
+    <t>2016-12-28</t>
+  </si>
+  <si>
+    <t>2011-11-16</t>
+  </si>
+  <si>
+    <t>2018-01-24</t>
+  </si>
+  <si>
+    <t>2018-04-18</t>
+  </si>
+  <si>
     <t>2020-02-26</t>
   </si>
   <si>
@@ -193,9 +610,48 @@
     <t>2019-08-14</t>
   </si>
   <si>
+    <t>2018-04-11</t>
+  </si>
+  <si>
+    <t>ANP:PHOSPHOAMINOPHOSPHONIC ACID-ADENYLATE ESTER</t>
+  </si>
+  <si>
+    <t>DQX:8-[3,5-DIFLUORO-4-(MORPHOLIN-4-YLMETHYL)PHENYL]-2-(1-PIPERIDIN-4-YL-1H-PYRAZOL-4-YL)QUINOXALINE</t>
+  </si>
+  <si>
+    <t>J2V:N-{4-[3-(6-METHOXYPYRIDIN-3-YL)-1H-PYRROLO[3,2-B]PYRIDIN-2-YL]PYRIDIN-2-YL}ACETAMIDE</t>
+  </si>
+  <si>
+    <t>J27:[3-CHLORANYL-4-(4-FLUORANYL-2-METHYL-PHENYL)PHENYL]METHYLAZANIUM|ATP:ADENOSINE-5'-TRIPHOSPHATE</t>
+  </si>
+  <si>
+    <t>4K4:2-[(2-METHOXY-4-{[4-(4-METHYLPIPERAZIN-1-YL)PIPERIDIN-1-YL]CARBONYL}PHENYL)AMINO]-5,11-DIMETHYL-5,11-DIHYDRO-6H-PYRIMIDO[4,5-B][1,4]BENZODIAZEPIN-6-ONE</t>
+  </si>
+  <si>
+    <t>8QW:(2~{R})-2-(4-FLUOROPHENYL)-~{N}-[4-[2-[(2-METHOXY-4-METHYLSULFONYL-PHENYL)AMINO]-[1,2,4]TRIAZOLO[1,5-A]PYRIDIN-6-YL]PHENYL]PROPANAMIDE</t>
+  </si>
+  <si>
+    <t>6YD:~{N}-(3-AMINOCARBONYL-1-METHYL-PYRAZOL-4-YL)-6-(1-METHYLPYRAZOL-4-YL)PYRIDINE-2-CARBOXAMIDE</t>
+  </si>
+  <si>
+    <t>66A:7-[CIS-3-(AZETIDIN-1-YLMETHYL)CYCLOBUTYL]-5-[3-(BENZYLOXY)PHENYL]-7H-PYRROLO[2,3-D]PYRIMIDIN-4-AMINE</t>
+  </si>
+  <si>
+    <t>4EF:3-[(5-CHLORO-7H-PYRROLO[2,3-D]PYRIMIDIN-4-YL)AMINO]-N-METHYL-4-(MORPHOLIN-4-YL)BENZENESULFONAMIDE</t>
+  </si>
+  <si>
     <t>ACP:PHOSPHOMETHYLPHOSPHONIC ACID ADENYLATE ESTER</t>
   </si>
   <si>
+    <t>CCK:[1-(6-{6-[(1-METHYLETHYL)AMINO]-1H-INDAZOL-1-YL}PYRAZIN-2-YL)-1H-PYRROL-3-YL]ACETIC ACID</t>
+  </si>
+  <si>
+    <t>0VM:2-[(4-{[3-(TRIFLUOROMETHYL)PYRIDIN-2-YL]OXY}PHENYL)AMINO]-1H-BENZIMIDAZOLE-6-CARBONITRILE</t>
+  </si>
+  <si>
+    <t>5L4:3-AMINO-6-[4-(2-HYDROXYETHYL)PHENYL]-N-[4-(MORPHOLIN-4-YL)PYRIDIN-3-YL]PYRAZINE-2-CARBOXAMIDE</t>
+  </si>
+  <si>
     <t>7FC:4-[6,8-BIS(CHLORANYL)-3-OXIDANYL-4-OXIDANYLIDENE-CHROMEN-2-YL]BENZOIC ACID</t>
   </si>
   <si>
@@ -205,18 +661,96 @@
     <t>ATP:ADENOSINE-5'-TRIPHOSPHATE</t>
   </si>
   <si>
-    <t>MG:MAGNESIUM ION|SO4:SULFATE ION</t>
+    <t>L1H:3-FLUORANYL-~{N}-[1-(2-METHYL-2-OXIDANYL-PROPYL)BENZIMIDAZOL-2-YL]-5-PYRIDIN-3-YL-BENZAMIDE</t>
+  </si>
+  <si>
+    <t>ANP:PHOSPHOAMINOPHOSPHONIC ACID-ADENYLATE ESTER|7XO:N2-[4-(4-METHYLPIPERAZIN-1-YL)PHENYL]-N8-PHENYL-9-PROPAN-2-YL-PURINE-2,8-DIAMINE</t>
+  </si>
+  <si>
+    <t>8JC:N-[3-[[2-[[4-(4-ETHANOYLPIPERAZIN-1-YL)-2-METHOXY-PHENYL]AMINO]-5-(TRIFLUOROMETHYL)PYRIMIDIN-4-YL]AMINO]PHENYL]PROP-2-ENAMIDE</t>
+  </si>
+  <si>
+    <t>GYL:N-[3-(5-{[(2-CHLORO-6-FLUOROPHENYL)METHYL]AMINO}-1H-1,2,4-TRIAZOL-3-YL)PHENYL]PROPANAMIDE</t>
+  </si>
+  <si>
+    <t>NIO:NICOTINIC ACID</t>
+  </si>
+  <si>
+    <t>MG:MAGNESIUM ION</t>
+  </si>
+  <si>
+    <t>GOL:GLYCEROL|DMS:DIMETHYL SULFOXIDE</t>
+  </si>
+  <si>
+    <t>GOL:GLYCEROL|MG:MAGNESIUM ION</t>
+  </si>
+  <si>
+    <t>ACT:ACETATE ION|DMS:DIMETHYL SULFOXIDE</t>
+  </si>
+  <si>
+    <t>MES:2-(N-MORPHOLINO)-ETHANESULFONIC ACID|SO4:SULFATE ION</t>
+  </si>
+  <si>
+    <t>GOL:GLYCEROL</t>
+  </si>
+  <si>
+    <t>SO4:SULFATE ION</t>
+  </si>
+  <si>
+    <t>SO4:SULFATE ION|MG:MAGNESIUM ION</t>
   </si>
   <si>
     <t>CL:CHLORIDE ION</t>
   </si>
   <si>
-    <t>MN:MANGANESE (II) ION|SEP:PHOSPHOSERINE|TPO:PHOSPHOTHREONINE</t>
+    <t>MN:MANGANESE (II) ION</t>
+  </si>
+  <si>
+    <t>EDO:ETHANE-1,2-DIOL|CL:CHLORIDE ION|MG:MAGNESIUM ION</t>
+  </si>
+  <si>
+    <t>TPO:PHOSPHOTHREONINE</t>
+  </si>
+  <si>
+    <t>SEP:PHOSPHOSERINE|SEP:PHOSPHOSERINE|TPO:PHOSPHOTHREONINE|TPO:PHOSPHOTHREONINE|TPO:PHOSPHOTHREONINE|TPO:PHOSPHOTHREONINE</t>
   </si>
   <si>
     <t>SEP:PHOSPHOSERINE|TPO:PHOSPHOTHREONINE</t>
   </si>
   <si>
+    <t>2.39</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>2.80</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>2.31</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
     <t>2.89</t>
   </si>
   <si>
@@ -226,7 +760,37 @@
     <t>2.71</t>
   </si>
   <si>
-    <t>2.20</t>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>2.64</t>
+  </si>
+  <si>
+    <t>1.89</t>
+  </si>
+  <si>
+    <t>P 21 21 21</t>
+  </si>
+  <si>
+    <t>P 1 21 1</t>
+  </si>
+  <si>
+    <t>I 2 2 2</t>
+  </si>
+  <si>
+    <t>C 1 2 1</t>
+  </si>
+  <si>
+    <t>P 41 21 2</t>
+  </si>
+  <si>
+    <t>P 43 2 2</t>
   </si>
   <si>
     <t>P 31 2 1</t>
@@ -235,7 +799,46 @@
     <t>P 43 21 2</t>
   </si>
   <si>
-    <t>P 21 21 21</t>
+    <t>I 2 3</t>
+  </si>
+  <si>
+    <t>29358026</t>
+  </si>
+  <si>
+    <t>28626520</t>
+  </si>
+  <si>
+    <t>30429955</t>
+  </si>
+  <si>
+    <t>29732088</t>
+  </si>
+  <si>
+    <t>29023112</t>
+  </si>
+  <si>
+    <t>28539250</t>
+  </si>
+  <si>
+    <t>27476420</t>
+  </si>
+  <si>
+    <t>26951750</t>
+  </si>
+  <si>
+    <t>27246618</t>
+  </si>
+  <si>
+    <t>23871672</t>
+  </si>
+  <si>
+    <t>21735094</t>
+  </si>
+  <si>
+    <t>22877629</t>
+  </si>
+  <si>
+    <t>27139629</t>
   </si>
   <si>
     <t>31988522</t>
@@ -245,6 +848,21 @@
   </si>
   <si>
     <t>15299527</t>
+  </si>
+  <si>
+    <t>31689114</t>
+  </si>
+  <si>
+    <t>29568384</t>
+  </si>
+  <si>
+    <t>28881827</t>
+  </si>
+  <si>
+    <t>28945083</t>
+  </si>
+  <si>
+    <t>29717996</t>
   </si>
 </sst>
 </file>
@@ -602,7 +1220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,339 +1299,1563 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2">
-        <v>394</v>
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
       </c>
       <c r="D2">
-        <v>393</v>
+        <v>1323</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="P2" t="s">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="Q2" t="s">
-        <v>59</v>
+        <v>199</v>
       </c>
       <c r="R2" t="s">
-        <v>63</v>
+        <v>220</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="T2" t="s">
-        <v>67</v>
+        <v>234</v>
       </c>
       <c r="U2" t="s">
-        <v>71</v>
+        <v>253</v>
       </c>
       <c r="V2" t="s">
-        <v>74</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3">
-        <v>307</v>
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>766</v>
+        <v>1132</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="L3" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="P3" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="Q3" t="s">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="R3" t="s">
-        <v>63</v>
+        <v>221</v>
       </c>
       <c r="S3" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="T3" t="s">
-        <v>67</v>
+        <v>235</v>
       </c>
       <c r="U3" t="s">
-        <v>71</v>
+        <v>254</v>
       </c>
       <c r="V3" t="s">
-        <v>74</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4">
-        <v>335</v>
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
       </c>
       <c r="D4">
-        <v>391</v>
+        <v>567</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="P4" t="s">
-        <v>57</v>
+        <v>185</v>
       </c>
       <c r="Q4" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="R4" t="s">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="S4" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="T4" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
       <c r="U4" t="s">
-        <v>72</v>
+        <v>253</v>
       </c>
       <c r="V4" t="s">
-        <v>75</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5">
-        <v>335</v>
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
       </c>
       <c r="D5">
         <v>391</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="P5" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="Q5" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="R5" t="s">
-        <v>64</v>
+        <v>223</v>
       </c>
       <c r="S5" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="T5" t="s">
-        <v>69</v>
+        <v>237</v>
       </c>
       <c r="U5" t="s">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c r="V5" t="s">
-        <v>75</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <v>476</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6" t="s">
+        <v>136</v>
+      </c>
+      <c r="M6" t="s">
+        <v>139</v>
+      </c>
+      <c r="N6" t="s">
+        <v>145</v>
+      </c>
+      <c r="O6" t="s">
+        <v>166</v>
+      </c>
+      <c r="P6" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>203</v>
+      </c>
+      <c r="R6" t="s">
+        <v>95</v>
+      </c>
+      <c r="S6" t="s">
+        <v>95</v>
+      </c>
+      <c r="T6" t="s">
+        <v>238</v>
+      </c>
+      <c r="U6" t="s">
+        <v>254</v>
+      </c>
+      <c r="V6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <v>857</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M7" t="s">
+        <v>139</v>
+      </c>
+      <c r="N7" t="s">
+        <v>146</v>
+      </c>
+      <c r="O7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>204</v>
+      </c>
+      <c r="R7" t="s">
+        <v>95</v>
+      </c>
+      <c r="S7" t="s">
+        <v>231</v>
+      </c>
+      <c r="T7" t="s">
+        <v>239</v>
+      </c>
+      <c r="U7" t="s">
+        <v>255</v>
+      </c>
+      <c r="V7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="C6">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>460</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" t="s">
+        <v>136</v>
+      </c>
+      <c r="M8" t="s">
+        <v>139</v>
+      </c>
+      <c r="N8" t="s">
+        <v>147</v>
+      </c>
+      <c r="O8" t="s">
+        <v>168</v>
+      </c>
+      <c r="P8" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>205</v>
+      </c>
+      <c r="R8" t="s">
+        <v>95</v>
+      </c>
+      <c r="S8" t="s">
+        <v>232</v>
+      </c>
+      <c r="T8" t="s">
+        <v>240</v>
+      </c>
+      <c r="U8" t="s">
+        <v>255</v>
+      </c>
+      <c r="V8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9">
+        <v>1367</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" t="s">
+        <v>134</v>
+      </c>
+      <c r="L9" t="s">
+        <v>136</v>
+      </c>
+      <c r="M9" t="s">
+        <v>139</v>
+      </c>
+      <c r="N9" t="s">
+        <v>148</v>
+      </c>
+      <c r="O9" t="s">
+        <v>169</v>
+      </c>
+      <c r="P9" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>206</v>
+      </c>
+      <c r="R9" t="s">
+        <v>224</v>
+      </c>
+      <c r="S9" t="s">
+        <v>95</v>
+      </c>
+      <c r="T9" t="s">
+        <v>241</v>
+      </c>
+      <c r="U9" t="s">
+        <v>256</v>
+      </c>
+      <c r="V9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10">
+        <v>766</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" t="s">
+        <v>129</v>
+      </c>
+      <c r="K10" t="s">
+        <v>134</v>
+      </c>
+      <c r="L10" t="s">
+        <v>136</v>
+      </c>
+      <c r="M10" t="s">
+        <v>139</v>
+      </c>
+      <c r="N10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O10" t="s">
+        <v>170</v>
+      </c>
+      <c r="P10" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>207</v>
+      </c>
+      <c r="R10" t="s">
+        <v>225</v>
+      </c>
+      <c r="S10" t="s">
+        <v>95</v>
+      </c>
+      <c r="T10" t="s">
+        <v>242</v>
+      </c>
+      <c r="U10" t="s">
+        <v>257</v>
+      </c>
+      <c r="V10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <v>821</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" t="s">
+        <v>136</v>
+      </c>
+      <c r="M11" t="s">
+        <v>139</v>
+      </c>
+      <c r="N11" t="s">
+        <v>150</v>
+      </c>
+      <c r="O11" t="s">
+        <v>171</v>
+      </c>
+      <c r="P11" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>208</v>
+      </c>
+      <c r="R11" t="s">
+        <v>226</v>
+      </c>
+      <c r="S11" t="s">
+        <v>95</v>
+      </c>
+      <c r="T11" t="s">
+        <v>243</v>
+      </c>
+      <c r="U11" t="s">
+        <v>258</v>
+      </c>
+      <c r="V11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12">
+        <v>391</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" t="s">
+        <v>139</v>
+      </c>
+      <c r="N12" t="s">
+        <v>151</v>
+      </c>
+      <c r="O12" t="s">
+        <v>172</v>
+      </c>
+      <c r="P12" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>209</v>
+      </c>
+      <c r="R12" t="s">
+        <v>95</v>
+      </c>
+      <c r="S12" t="s">
+        <v>95</v>
+      </c>
+      <c r="T12" t="s">
+        <v>241</v>
+      </c>
+      <c r="U12" t="s">
+        <v>253</v>
+      </c>
+      <c r="V12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <v>447</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" t="s">
+        <v>139</v>
+      </c>
+      <c r="N13" t="s">
+        <v>152</v>
+      </c>
+      <c r="O13" t="s">
+        <v>173</v>
+      </c>
+      <c r="P13" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>210</v>
+      </c>
+      <c r="R13" t="s">
+        <v>95</v>
+      </c>
+      <c r="S13" t="s">
+        <v>95</v>
+      </c>
+      <c r="T13" t="s">
+        <v>239</v>
+      </c>
+      <c r="U13" t="s">
+        <v>259</v>
+      </c>
+      <c r="V13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>567</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
+      <c r="N14" t="s">
+        <v>153</v>
+      </c>
+      <c r="O14" t="s">
+        <v>174</v>
+      </c>
+      <c r="P14" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>211</v>
+      </c>
+      <c r="R14" t="s">
+        <v>95</v>
+      </c>
+      <c r="S14" t="s">
+        <v>95</v>
+      </c>
+      <c r="T14" t="s">
+        <v>244</v>
+      </c>
+      <c r="U14" t="s">
+        <v>253</v>
+      </c>
+      <c r="V14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15">
+        <v>393</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="s">
+        <v>139</v>
+      </c>
+      <c r="N15" t="s">
+        <v>154</v>
+      </c>
+      <c r="O15" t="s">
+        <v>175</v>
+      </c>
+      <c r="P15" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>208</v>
+      </c>
+      <c r="R15" t="s">
+        <v>227</v>
+      </c>
+      <c r="S15" t="s">
+        <v>95</v>
+      </c>
+      <c r="T15" t="s">
+        <v>245</v>
+      </c>
+      <c r="U15" t="s">
+        <v>259</v>
+      </c>
+      <c r="V15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>766</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" t="s">
+        <v>139</v>
+      </c>
+      <c r="N16" t="s">
+        <v>154</v>
+      </c>
+      <c r="O16" t="s">
+        <v>175</v>
+      </c>
+      <c r="P16" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>208</v>
+      </c>
+      <c r="R16" t="s">
+        <v>227</v>
+      </c>
+      <c r="S16" t="s">
+        <v>95</v>
+      </c>
+      <c r="T16" t="s">
+        <v>245</v>
+      </c>
+      <c r="U16" t="s">
+        <v>259</v>
+      </c>
+      <c r="V16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17">
+        <v>391</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17" t="s">
+        <v>136</v>
+      </c>
+      <c r="M17" t="s">
+        <v>139</v>
+      </c>
+      <c r="N17" t="s">
+        <v>155</v>
+      </c>
+      <c r="O17" t="s">
+        <v>176</v>
+      </c>
+      <c r="P17" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>212</v>
+      </c>
+      <c r="R17" t="s">
+        <v>228</v>
+      </c>
+      <c r="S17" t="s">
+        <v>95</v>
+      </c>
+      <c r="T17" t="s">
+        <v>246</v>
+      </c>
+      <c r="U17" t="s">
+        <v>260</v>
+      </c>
+      <c r="V17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18">
+        <v>391</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" t="s">
+        <v>129</v>
+      </c>
+      <c r="K18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18" t="s">
+        <v>136</v>
+      </c>
+      <c r="M18" t="s">
+        <v>139</v>
+      </c>
+      <c r="N18" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18" t="s">
+        <v>176</v>
+      </c>
+      <c r="P18" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>213</v>
+      </c>
+      <c r="R18" t="s">
+        <v>228</v>
+      </c>
+      <c r="S18" t="s">
+        <v>95</v>
+      </c>
+      <c r="T18" t="s">
+        <v>247</v>
+      </c>
+      <c r="U18" t="s">
+        <v>260</v>
+      </c>
+      <c r="V18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19">
+        <v>351</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" t="s">
+        <v>137</v>
+      </c>
+      <c r="M19" t="s">
+        <v>140</v>
+      </c>
+      <c r="N19" t="s">
+        <v>156</v>
+      </c>
+      <c r="O19" t="s">
+        <v>177</v>
+      </c>
+      <c r="P19" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>214</v>
+      </c>
+      <c r="R19" t="s">
+        <v>229</v>
+      </c>
+      <c r="S19" t="s">
+        <v>233</v>
+      </c>
+      <c r="T19" t="s">
+        <v>241</v>
+      </c>
+      <c r="U19" t="s">
+        <v>253</v>
+      </c>
+      <c r="V19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20">
+        <v>1210</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" t="s">
+        <v>134</v>
+      </c>
+      <c r="L20" t="s">
+        <v>136</v>
+      </c>
+      <c r="M20" t="s">
+        <v>139</v>
+      </c>
+      <c r="N20" t="s">
+        <v>157</v>
+      </c>
+      <c r="O20" t="s">
+        <v>178</v>
+      </c>
+      <c r="P20" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>215</v>
+      </c>
+      <c r="R20" t="s">
+        <v>95</v>
+      </c>
+      <c r="S20" t="s">
+        <v>95</v>
+      </c>
+      <c r="T20" t="s">
+        <v>248</v>
+      </c>
+      <c r="U20" t="s">
+        <v>261</v>
+      </c>
+      <c r="V20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>1210</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" t="s">
+        <v>124</v>
+      </c>
+      <c r="J21" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" t="s">
+        <v>134</v>
+      </c>
+      <c r="L21" t="s">
+        <v>136</v>
+      </c>
+      <c r="M21" t="s">
+        <v>139</v>
+      </c>
+      <c r="N21" t="s">
+        <v>158</v>
+      </c>
+      <c r="O21" t="s">
+        <v>179</v>
+      </c>
+      <c r="P21" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>216</v>
+      </c>
+      <c r="R21" t="s">
+        <v>230</v>
+      </c>
+      <c r="S21" t="s">
+        <v>95</v>
+      </c>
+      <c r="T21" t="s">
+        <v>249</v>
+      </c>
+      <c r="U21" t="s">
+        <v>254</v>
+      </c>
+      <c r="V21" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22">
+        <v>1210</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" t="s">
+        <v>125</v>
+      </c>
+      <c r="J22" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" t="s">
+        <v>134</v>
+      </c>
+      <c r="L22" t="s">
+        <v>136</v>
+      </c>
+      <c r="M22" t="s">
+        <v>139</v>
+      </c>
+      <c r="N22" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" t="s">
+        <v>180</v>
+      </c>
+      <c r="P22" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>217</v>
+      </c>
+      <c r="R22" t="s">
+        <v>95</v>
+      </c>
+      <c r="S22" t="s">
+        <v>95</v>
+      </c>
+      <c r="T22" t="s">
+        <v>250</v>
+      </c>
+      <c r="U22" t="s">
+        <v>261</v>
+      </c>
+      <c r="V22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23">
+        <v>659</v>
+      </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" t="s">
+        <v>127</v>
+      </c>
+      <c r="K23" t="s">
+        <v>134</v>
+      </c>
+      <c r="L23" t="s">
+        <v>136</v>
+      </c>
+      <c r="M23" t="s">
+        <v>139</v>
+      </c>
+      <c r="N23" t="s">
+        <v>160</v>
+      </c>
+      <c r="O23" t="s">
+        <v>181</v>
+      </c>
+      <c r="P23" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>218</v>
+      </c>
+      <c r="R23" t="s">
+        <v>95</v>
+      </c>
+      <c r="S23" t="s">
+        <v>95</v>
+      </c>
+      <c r="T23" t="s">
+        <v>251</v>
+      </c>
+      <c r="U23" t="s">
+        <v>254</v>
+      </c>
+      <c r="V23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24">
         <v>350</v>
       </c>
-      <c r="D6">
-        <v>351</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>62</v>
-      </c>
-      <c r="R6" t="s">
-        <v>65</v>
-      </c>
-      <c r="S6" t="s">
-        <v>66</v>
-      </c>
-      <c r="T6" t="s">
-        <v>70</v>
-      </c>
-      <c r="U6" t="s">
-        <v>73</v>
-      </c>
-      <c r="V6" t="s">
-        <v>76</v>
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" t="s">
+        <v>129</v>
+      </c>
+      <c r="K24" t="s">
+        <v>134</v>
+      </c>
+      <c r="L24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M24" t="s">
+        <v>139</v>
+      </c>
+      <c r="N24" t="s">
+        <v>161</v>
+      </c>
+      <c r="O24" t="s">
+        <v>182</v>
+      </c>
+      <c r="P24" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>219</v>
+      </c>
+      <c r="R24" t="s">
+        <v>226</v>
+      </c>
+      <c r="S24" t="s">
+        <v>95</v>
+      </c>
+      <c r="T24" t="s">
+        <v>252</v>
+      </c>
+      <c r="U24" t="s">
+        <v>254</v>
+      </c>
+      <c r="V24" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
